--- a/Deliverables/poster/poster_graphs.xlsx
+++ b/Deliverables/poster/poster_graphs.xlsx
@@ -5,26 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyatt_doc/Documents/Winter 2020/SpamDetector/Deliverables/poster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyatt_doc/Documents/Winter 2020/SpamDetector/deliverables/poster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052AAC6D-039B-0947-A709-E54E0A33BE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3580916E-2393-C542-9715-5418B777AF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="2880" windowWidth="20880" windowHeight="17440" xr2:uid="{237E7979-133E-DD4A-A8BD-660B0A41DEF3}"/>
+    <workbookView xWindow="12720" yWindow="2880" windowWidth="20880" windowHeight="17440" xr2:uid="{237E7979-133E-DD4A-A8BD-660B0A41DEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$15:$A$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$15:$B$20</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$14</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$15:$A$20</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$14</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$15:$B$20</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -143,7 +133,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
               <a:t>Max Iterations vs. Accuracy</a:t>
             </a:r>
           </a:p>
@@ -493,10 +483,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
               <a:t>k vs. Accuracy</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
+            <a:endParaRPr lang="en-US" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2293,7 +2283,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
